--- a/biology/Médecine/Biopulpectomie/Biopulpectomie.xlsx
+++ b/biology/Médecine/Biopulpectomie/Biopulpectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La biopulpectomie (ou pulpectomie) est l'ablation de la pulpe dentaire non infectée.
-Pratiquée sur une dent vivante, elle a pour résultat de dévitaliser cette dernière. Elle s'effectue sous anesthésie. Les saignements sont minimisés par l'utilisation de peroxyde d'hydrogène, d'acide trichloroéthanoïque, d'acide chlorhydrique, de méthanal ou de thrombine plasmatique[1].
+Pratiquée sur une dent vivante, elle a pour résultat de dévitaliser cette dernière. Elle s'effectue sous anesthésie. Les saignements sont minimisés par l'utilisation de peroxyde d'hydrogène, d'acide trichloroéthanoïque, d'acide chlorhydrique, de méthanal ou de thrombine plasmatique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une biopulpectomie imparfaitement traitée peut entraîner l'apparition d'un granulome[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une biopulpectomie imparfaitement traitée peut entraîner l'apparition d'un granulome.
 </t>
         </is>
       </c>
